--- a/TablaModelo.xlsx
+++ b/TablaModelo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CURSO 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DESARROLLO\MORDAZAS\MORDAZAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87315171-4400-4258-81F9-6C1D2B215E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D23432-87F5-402C-B962-A1C09EB6CE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="615" windowWidth="20295" windowHeight="10305" xr2:uid="{0822114A-04FC-41A8-AD83-30FBFF6FE54E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0822114A-04FC-41A8-AD83-30FBFF6FE54E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>N° Maquina</t>
-  </si>
-  <si>
-    <t>Operación</t>
-  </si>
-  <si>
-    <t>Leyenda</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>339-003</t>
   </si>
@@ -57,12 +48,6 @@
     <t>Mueble 40 cajon 4</t>
   </si>
   <si>
-    <t>Modelo 283</t>
-  </si>
-  <si>
-    <t>Modelo 266</t>
-  </si>
-  <si>
     <t>339-005</t>
   </si>
   <si>
@@ -82,6 +67,42 @@
   </si>
   <si>
     <t>Mueble 40 cajon 8</t>
+  </si>
+  <si>
+    <t>operación</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>NumMaquina</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 9</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 10</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 13</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 11</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 14</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 12</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 15</t>
+  </si>
+  <si>
+    <t>Mueble 40 cajon 16</t>
+  </si>
+  <si>
+    <t>leyenda</t>
   </si>
 </sst>
 </file>
@@ -144,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -153,7 +174,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,55 +198,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>256571</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990FE130-1BE1-DF4D-8193-94832A1759B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6296025" y="190500"/>
-          <a:ext cx="4828571" cy="2219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,37 +497,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194B2ACD-8F51-4E4B-9CEA-96D77CA3F51A}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -555,135 +533,222 @@
       <c r="C3" s="3">
         <v>266</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
         <v>283</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
         <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>266</v>
-      </c>
-      <c r="D4" s="3">
-        <v>283</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>266</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
         <v>283</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>266</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>283</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
         <v>25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C9" s="3">
         <v>266</v>
       </c>
-      <c r="D6" s="3">
-        <v>283</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="3">
+        <v>283</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>